--- a/AutoM_python/Excel/WSUS.xlsx
+++ b/AutoM_python/Excel/WSUS.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlos.bedoya\Documents\Documentacion\Equipo Infra\Scripts Python\Top_5_INC\PoweShell EXP\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JesusMe\Documents\autompython\AutoM_python\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C99C25AB-7AEA-4076-AFF8-08015016525B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12450"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4384,7 +4383,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4749,25 +4748,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G539"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="34.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="43.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4790,7 +4789,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -4813,7 +4812,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -4836,7 +4835,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -4859,7 +4858,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>22</v>
       </c>
@@ -4882,7 +4881,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -4905,7 +4904,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -4928,7 +4927,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -4951,7 +4950,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>35</v>
       </c>
@@ -4974,7 +4973,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -4997,7 +4996,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>41</v>
       </c>
@@ -5020,7 +5019,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>47</v>
       </c>
@@ -5043,7 +5042,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -5066,7 +5065,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>54</v>
       </c>
@@ -5089,7 +5088,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>57</v>
       </c>
@@ -5112,7 +5111,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>60</v>
       </c>
@@ -5135,7 +5134,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>63</v>
       </c>
@@ -5158,7 +5157,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>66</v>
       </c>
@@ -5181,7 +5180,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>68</v>
       </c>
@@ -5204,7 +5203,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>71</v>
       </c>
@@ -5227,7 +5226,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>73</v>
       </c>
@@ -5250,7 +5249,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>76</v>
       </c>
@@ -5273,7 +5272,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>79</v>
       </c>
@@ -5296,7 +5295,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>82</v>
       </c>
@@ -5319,7 +5318,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>85</v>
       </c>
@@ -5342,7 +5341,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>89</v>
       </c>
@@ -5365,7 +5364,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>92</v>
       </c>
@@ -5388,7 +5387,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>95</v>
       </c>
@@ -5411,7 +5410,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>98</v>
       </c>
@@ -5434,7 +5433,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>101</v>
       </c>
@@ -5457,7 +5456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>104</v>
       </c>
@@ -5480,7 +5479,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>107</v>
       </c>
@@ -5503,7 +5502,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>111</v>
       </c>
@@ -5526,7 +5525,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>114</v>
       </c>
@@ -5549,7 +5548,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>118</v>
       </c>
@@ -5572,7 +5571,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>121</v>
       </c>
@@ -5595,7 +5594,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>124</v>
       </c>
@@ -5618,7 +5617,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>128</v>
       </c>
@@ -5641,7 +5640,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>131</v>
       </c>
@@ -5664,7 +5663,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>134</v>
       </c>
@@ -5687,7 +5686,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>137</v>
       </c>
@@ -5710,7 +5709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>140</v>
       </c>
@@ -5733,7 +5732,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>143</v>
       </c>
@@ -5756,7 +5755,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>145</v>
       </c>
@@ -5779,7 +5778,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>148</v>
       </c>
@@ -5802,7 +5801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>150</v>
       </c>
@@ -5825,7 +5824,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>153</v>
       </c>
@@ -5848,7 +5847,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>155</v>
       </c>
@@ -5871,7 +5870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>158</v>
       </c>
@@ -5894,7 +5893,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>161</v>
       </c>
@@ -5917,7 +5916,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>164</v>
       </c>
@@ -5940,7 +5939,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>167</v>
       </c>
@@ -5963,7 +5962,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>172</v>
       </c>
@@ -5986,7 +5985,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>175</v>
       </c>
@@ -6009,7 +6008,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>178</v>
       </c>
@@ -6032,7 +6031,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>181</v>
       </c>
@@ -6055,7 +6054,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>183</v>
       </c>
@@ -6078,7 +6077,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>186</v>
       </c>
@@ -6101,7 +6100,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>189</v>
       </c>
@@ -6124,7 +6123,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>191</v>
       </c>
@@ -6147,7 +6146,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>194</v>
       </c>
@@ -6170,7 +6169,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>197</v>
       </c>
@@ -6193,7 +6192,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>200</v>
       </c>
@@ -6216,7 +6215,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>204</v>
       </c>
@@ -6239,7 +6238,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>207</v>
       </c>
@@ -6262,7 +6261,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>210</v>
       </c>
@@ -6285,7 +6284,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>213</v>
       </c>
@@ -6308,7 +6307,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>217</v>
       </c>
@@ -6331,7 +6330,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>220</v>
       </c>
@@ -6354,7 +6353,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>224</v>
       </c>
@@ -6377,7 +6376,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>227</v>
       </c>
@@ -6400,7 +6399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>230</v>
       </c>
@@ -6423,7 +6422,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>233</v>
       </c>
@@ -6446,7 +6445,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>236</v>
       </c>
@@ -6469,7 +6468,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>237</v>
       </c>
@@ -6492,7 +6491,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>240</v>
       </c>
@@ -6515,7 +6514,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>244</v>
       </c>
@@ -6538,7 +6537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>247</v>
       </c>
@@ -6561,7 +6560,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>250</v>
       </c>
@@ -6584,7 +6583,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>254</v>
       </c>
@@ -6607,7 +6606,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>258</v>
       </c>
@@ -6630,7 +6629,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>261</v>
       </c>
@@ -6653,7 +6652,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>264</v>
       </c>
@@ -6676,7 +6675,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>267</v>
       </c>
@@ -6699,7 +6698,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>270</v>
       </c>
@@ -6722,7 +6721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>272</v>
       </c>
@@ -6745,7 +6744,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>274</v>
       </c>
@@ -6768,7 +6767,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>277</v>
       </c>
@@ -6791,7 +6790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>280</v>
       </c>
@@ -6814,7 +6813,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>283</v>
       </c>
@@ -6837,7 +6836,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>286</v>
       </c>
@@ -6860,7 +6859,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>290</v>
       </c>
@@ -6883,7 +6882,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>292</v>
       </c>
@@ -6906,7 +6905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>295</v>
       </c>
@@ -6929,7 +6928,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>298</v>
       </c>
@@ -6952,7 +6951,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>301</v>
       </c>
@@ -6975,7 +6974,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>304</v>
       </c>
@@ -6998,7 +6997,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>306</v>
       </c>
@@ -7021,7 +7020,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>309</v>
       </c>
@@ -7044,7 +7043,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>312</v>
       </c>
@@ -7067,7 +7066,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>316</v>
       </c>
@@ -7090,7 +7089,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>319</v>
       </c>
@@ -7113,7 +7112,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>322</v>
       </c>
@@ -7136,7 +7135,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>324</v>
       </c>
@@ -7159,7 +7158,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>327</v>
       </c>
@@ -7182,7 +7181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>329</v>
       </c>
@@ -7205,7 +7204,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>332</v>
       </c>
@@ -7228,7 +7227,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>334</v>
       </c>
@@ -7251,7 +7250,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>337</v>
       </c>
@@ -7274,7 +7273,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>340</v>
       </c>
@@ -7297,7 +7296,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>345</v>
       </c>
@@ -7320,7 +7319,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>347</v>
       </c>
@@ -7343,7 +7342,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>350</v>
       </c>
@@ -7366,7 +7365,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>353</v>
       </c>
@@ -7389,7 +7388,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>355</v>
       </c>
@@ -7412,7 +7411,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>357</v>
       </c>
@@ -7435,7 +7434,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>359</v>
       </c>
@@ -7458,7 +7457,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>362</v>
       </c>
@@ -7481,7 +7480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>365</v>
       </c>
@@ -7504,7 +7503,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>367</v>
       </c>
@@ -7527,7 +7526,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>370</v>
       </c>
@@ -7550,7 +7549,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>372</v>
       </c>
@@ -7573,7 +7572,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>375</v>
       </c>
@@ -7596,7 +7595,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>377</v>
       </c>
@@ -7619,7 +7618,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>379</v>
       </c>
@@ -7642,7 +7641,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>382</v>
       </c>
@@ -7665,7 +7664,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>385</v>
       </c>
@@ -7688,7 +7687,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>388</v>
       </c>
@@ -7711,7 +7710,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>392</v>
       </c>
@@ -7734,7 +7733,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>395</v>
       </c>
@@ -7757,7 +7756,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>399</v>
       </c>
@@ -7780,7 +7779,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>400</v>
       </c>
@@ -7803,7 +7802,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>403</v>
       </c>
@@ -7826,7 +7825,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>405</v>
       </c>
@@ -7849,7 +7848,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>407</v>
       </c>
@@ -7872,7 +7871,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>409</v>
       </c>
@@ -7895,7 +7894,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>411</v>
       </c>
@@ -7918,7 +7917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>414</v>
       </c>
@@ -7941,7 +7940,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>417</v>
       </c>
@@ -7964,7 +7963,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>420</v>
       </c>
@@ -7987,7 +7986,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>423</v>
       </c>
@@ -8010,7 +8009,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>425</v>
       </c>
@@ -8033,7 +8032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>428</v>
       </c>
@@ -8056,7 +8055,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>431</v>
       </c>
@@ -8079,7 +8078,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>434</v>
       </c>
@@ -8102,7 +8101,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>437</v>
       </c>
@@ -8125,7 +8124,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>440</v>
       </c>
@@ -8148,7 +8147,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>443</v>
       </c>
@@ -8171,7 +8170,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>447</v>
       </c>
@@ -8194,7 +8193,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>450</v>
       </c>
@@ -8217,7 +8216,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>453</v>
       </c>
@@ -8240,7 +8239,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>455</v>
       </c>
@@ -8263,7 +8262,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>457</v>
       </c>
@@ -8286,7 +8285,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>460</v>
       </c>
@@ -8309,7 +8308,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>462</v>
       </c>
@@ -8332,7 +8331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>464</v>
       </c>
@@ -8355,7 +8354,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>467</v>
       </c>
@@ -8378,7 +8377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>470</v>
       </c>
@@ -8401,7 +8400,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>472</v>
       </c>
@@ -8424,7 +8423,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>476</v>
       </c>
@@ -8447,7 +8446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>478</v>
       </c>
@@ -8470,7 +8469,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>480</v>
       </c>
@@ -8493,7 +8492,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>482</v>
       </c>
@@ -8516,7 +8515,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>485</v>
       </c>
@@ -8539,7 +8538,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>488</v>
       </c>
@@ -8562,7 +8561,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>491</v>
       </c>
@@ -8585,7 +8584,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>494</v>
       </c>
@@ -8608,7 +8607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>497</v>
       </c>
@@ -8631,7 +8630,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>499</v>
       </c>
@@ -8654,7 +8653,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>501</v>
       </c>
@@ -8677,7 +8676,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>503</v>
       </c>
@@ -8700,7 +8699,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>505</v>
       </c>
@@ -8723,7 +8722,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>507</v>
       </c>
@@ -8746,7 +8745,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>510</v>
       </c>
@@ -8769,7 +8768,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>513</v>
       </c>
@@ -8792,7 +8791,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>515</v>
       </c>
@@ -8815,7 +8814,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>518</v>
       </c>
@@ -8838,7 +8837,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>521</v>
       </c>
@@ -8861,7 +8860,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>523</v>
       </c>
@@ -8884,7 +8883,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>526</v>
       </c>
@@ -8907,7 +8906,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>528</v>
       </c>
@@ -8930,7 +8929,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>531</v>
       </c>
@@ -8953,7 +8952,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>535</v>
       </c>
@@ -8976,7 +8975,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>537</v>
       </c>
@@ -8999,7 +8998,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>539</v>
       </c>
@@ -9022,7 +9021,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>542</v>
       </c>
@@ -9045,7 +9044,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>544</v>
       </c>
@@ -9068,7 +9067,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>547</v>
       </c>
@@ -9091,7 +9090,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>549</v>
       </c>
@@ -9114,7 +9113,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>552</v>
       </c>
@@ -9137,7 +9136,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>554</v>
       </c>
@@ -9160,7 +9159,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>557</v>
       </c>
@@ -9183,7 +9182,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>559</v>
       </c>
@@ -9206,7 +9205,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>562</v>
       </c>
@@ -9229,7 +9228,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>566</v>
       </c>
@@ -9252,7 +9251,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>568</v>
       </c>
@@ -9275,7 +9274,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>570</v>
       </c>
@@ -9298,7 +9297,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>572</v>
       </c>
@@ -9321,7 +9320,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>574</v>
       </c>
@@ -9344,7 +9343,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>576</v>
       </c>
@@ -9367,7 +9366,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>580</v>
       </c>
@@ -9390,7 +9389,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>581</v>
       </c>
@@ -9413,7 +9412,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>583</v>
       </c>
@@ -9436,7 +9435,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>584</v>
       </c>
@@ -9459,7 +9458,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>589</v>
       </c>
@@ -9482,7 +9481,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>592</v>
       </c>
@@ -9505,7 +9504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>595</v>
       </c>
@@ -9528,7 +9527,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>597</v>
       </c>
@@ -9551,7 +9550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>600</v>
       </c>
@@ -9574,7 +9573,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>603</v>
       </c>
@@ -9597,7 +9596,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>606</v>
       </c>
@@ -9620,7 +9619,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>609</v>
       </c>
@@ -9643,7 +9642,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>612</v>
       </c>
@@ -9666,7 +9665,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>615</v>
       </c>
@@ -9689,7 +9688,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>618</v>
       </c>
@@ -9712,7 +9711,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>620</v>
       </c>
@@ -9735,7 +9734,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>622</v>
       </c>
@@ -9758,7 +9757,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>625</v>
       </c>
@@ -9781,7 +9780,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>628</v>
       </c>
@@ -9804,7 +9803,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>631</v>
       </c>
@@ -9827,7 +9826,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>634</v>
       </c>
@@ -9850,7 +9849,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>637</v>
       </c>
@@ -9873,7 +9872,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>639</v>
       </c>
@@ -9896,7 +9895,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>641</v>
       </c>
@@ -9919,7 +9918,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>644</v>
       </c>
@@ -9942,7 +9941,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>647</v>
       </c>
@@ -9965,7 +9964,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>649</v>
       </c>
@@ -9988,7 +9987,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>650</v>
       </c>
@@ -10011,7 +10010,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>653</v>
       </c>
@@ -10034,7 +10033,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>656</v>
       </c>
@@ -10057,7 +10056,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>659</v>
       </c>
@@ -10080,7 +10079,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>663</v>
       </c>
@@ -10103,7 +10102,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>666</v>
       </c>
@@ -10126,7 +10125,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>669</v>
       </c>
@@ -10149,7 +10148,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>672</v>
       </c>
@@ -10172,7 +10171,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>675</v>
       </c>
@@ -10195,7 +10194,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>678</v>
       </c>
@@ -10218,7 +10217,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>681</v>
       </c>
@@ -10241,7 +10240,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>684</v>
       </c>
@@ -10264,7 +10263,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>686</v>
       </c>
@@ -10287,7 +10286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>689</v>
       </c>
@@ -10310,7 +10309,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>692</v>
       </c>
@@ -10333,7 +10332,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>694</v>
       </c>
@@ -10356,7 +10355,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>697</v>
       </c>
@@ -10379,7 +10378,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>700</v>
       </c>
@@ -10402,7 +10401,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>703</v>
       </c>
@@ -10425,7 +10424,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>706</v>
       </c>
@@ -10448,7 +10447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>709</v>
       </c>
@@ -10471,7 +10470,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>712</v>
       </c>
@@ -10494,7 +10493,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>714</v>
       </c>
@@ -10517,7 +10516,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>717</v>
       </c>
@@ -10540,7 +10539,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>720</v>
       </c>
@@ -10563,7 +10562,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>723</v>
       </c>
@@ -10586,7 +10585,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>726</v>
       </c>
@@ -10609,7 +10608,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>728</v>
       </c>
@@ -10632,7 +10631,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>730</v>
       </c>
@@ -10655,7 +10654,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>732</v>
       </c>
@@ -10678,7 +10677,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>734</v>
       </c>
@@ -10701,7 +10700,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>736</v>
       </c>
@@ -10724,7 +10723,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>739</v>
       </c>
@@ -10747,7 +10746,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>742</v>
       </c>
@@ -10770,7 +10769,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>744</v>
       </c>
@@ -10793,7 +10792,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>746</v>
       </c>
@@ -10816,7 +10815,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>748</v>
       </c>
@@ -10839,7 +10838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>751</v>
       </c>
@@ -10862,7 +10861,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>752</v>
       </c>
@@ -10885,7 +10884,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>753</v>
       </c>
@@ -10908,7 +10907,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>755</v>
       </c>
@@ -10931,7 +10930,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>757</v>
       </c>
@@ -10954,7 +10953,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>759</v>
       </c>
@@ -10977,7 +10976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>762</v>
       </c>
@@ -11000,7 +10999,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>764</v>
       </c>
@@ -11023,7 +11022,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>767</v>
       </c>
@@ -11046,7 +11045,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>769</v>
       </c>
@@ -11069,7 +11068,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>773</v>
       </c>
@@ -11092,7 +11091,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>775</v>
       </c>
@@ -11115,7 +11114,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>777</v>
       </c>
@@ -11138,7 +11137,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>779</v>
       </c>
@@ -11161,7 +11160,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>782</v>
       </c>
@@ -11184,7 +11183,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>785</v>
       </c>
@@ -11207,7 +11206,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>787</v>
       </c>
@@ -11230,7 +11229,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>790</v>
       </c>
@@ -11253,7 +11252,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>793</v>
       </c>
@@ -11276,7 +11275,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>796</v>
       </c>
@@ -11299,7 +11298,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>799</v>
       </c>
@@ -11322,7 +11321,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>802</v>
       </c>
@@ -11345,7 +11344,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>805</v>
       </c>
@@ -11368,7 +11367,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>807</v>
       </c>
@@ -11391,7 +11390,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>810</v>
       </c>
@@ -11414,7 +11413,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>813</v>
       </c>
@@ -11437,7 +11436,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>816</v>
       </c>
@@ -11460,7 +11459,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>819</v>
       </c>
@@ -11483,7 +11482,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>821</v>
       </c>
@@ -11506,7 +11505,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>823</v>
       </c>
@@ -11529,7 +11528,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>825</v>
       </c>
@@ -11552,7 +11551,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>827</v>
       </c>
@@ -11575,7 +11574,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>829</v>
       </c>
@@ -11598,7 +11597,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>831</v>
       </c>
@@ -11621,7 +11620,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>833</v>
       </c>
@@ -11644,7 +11643,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>835</v>
       </c>
@@ -11667,7 +11666,7 @@
         <v>837</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>838</v>
       </c>
@@ -11690,7 +11689,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>842</v>
       </c>
@@ -11713,7 +11712,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>845</v>
       </c>
@@ -11736,7 +11735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>848</v>
       </c>
@@ -11759,7 +11758,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="305" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>851</v>
       </c>
@@ -11782,7 +11781,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="306" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>853</v>
       </c>
@@ -11805,7 +11804,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="307" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>855</v>
       </c>
@@ -11828,7 +11827,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="308" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>858</v>
       </c>
@@ -11851,7 +11850,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="309" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>861</v>
       </c>
@@ -11874,7 +11873,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="310" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>863</v>
       </c>
@@ -11897,7 +11896,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="311" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>865</v>
       </c>
@@ -11920,7 +11919,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="312" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>867</v>
       </c>
@@ -11943,7 +11942,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="313" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>870</v>
       </c>
@@ -11966,7 +11965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="314" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>873</v>
       </c>
@@ -11989,7 +11988,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="315" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>876</v>
       </c>
@@ -12012,7 +12011,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="316" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>879</v>
       </c>
@@ -12035,7 +12034,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="317" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>882</v>
       </c>
@@ -12058,7 +12057,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="318" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>885</v>
       </c>
@@ -12081,7 +12080,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="319" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>887</v>
       </c>
@@ -12104,7 +12103,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="320" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>889</v>
       </c>
@@ -12127,7 +12126,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="321" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>892</v>
       </c>
@@ -12150,7 +12149,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="322" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>895</v>
       </c>
@@ -12173,7 +12172,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="323" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>898</v>
       </c>
@@ -12196,7 +12195,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="324" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>901</v>
       </c>
@@ -12219,7 +12218,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="325" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>904</v>
       </c>
@@ -12242,7 +12241,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="326" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>906</v>
       </c>
@@ -12265,7 +12264,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="327" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>909</v>
       </c>
@@ -12288,7 +12287,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="328" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>911</v>
       </c>
@@ -12311,7 +12310,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="329" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>913</v>
       </c>
@@ -12334,7 +12333,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="330" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>915</v>
       </c>
@@ -12357,7 +12356,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="331" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>918</v>
       </c>
@@ -12380,7 +12379,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="332" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
         <v>919</v>
       </c>
@@ -12403,7 +12402,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="333" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>922</v>
       </c>
@@ -12426,7 +12425,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="334" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>923</v>
       </c>
@@ -12449,7 +12448,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="335" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
         <v>925</v>
       </c>
@@ -12472,7 +12471,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="336" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>927</v>
       </c>
@@ -12495,7 +12494,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="337" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>931</v>
       </c>
@@ -12518,7 +12517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="338" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
         <v>934</v>
       </c>
@@ -12541,7 +12540,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="339" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>937</v>
       </c>
@@ -12564,7 +12563,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="340" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>939</v>
       </c>
@@ -12587,7 +12586,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="341" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
         <v>940</v>
       </c>
@@ -12610,7 +12609,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="342" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>942</v>
       </c>
@@ -12633,7 +12632,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="343" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>944</v>
       </c>
@@ -12656,7 +12655,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="344" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
         <v>946</v>
       </c>
@@ -12679,7 +12678,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="345" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>949</v>
       </c>
@@ -12702,7 +12701,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="346" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>952</v>
       </c>
@@ -12725,7 +12724,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="347" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
         <v>954</v>
       </c>
@@ -12748,7 +12747,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="348" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>956</v>
       </c>
@@ -12771,7 +12770,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="349" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>958</v>
       </c>
@@ -12794,7 +12793,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="350" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
         <v>960</v>
       </c>
@@ -12817,7 +12816,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="351" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>963</v>
       </c>
@@ -12840,7 +12839,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="352" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>966</v>
       </c>
@@ -12863,7 +12862,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="353" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>969</v>
       </c>
@@ -12886,7 +12885,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="354" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>971</v>
       </c>
@@ -12909,7 +12908,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="355" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>975</v>
       </c>
@@ -12932,7 +12931,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="356" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>979</v>
       </c>
@@ -12955,7 +12954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="357" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>982</v>
       </c>
@@ -12978,7 +12977,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="358" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>986</v>
       </c>
@@ -13001,7 +13000,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="359" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>989</v>
       </c>
@@ -13024,7 +13023,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="360" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>991</v>
       </c>
@@ -13047,7 +13046,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="361" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>994</v>
       </c>
@@ -13070,7 +13069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="362" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>997</v>
       </c>
@@ -13093,7 +13092,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="363" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>1000</v>
       </c>
@@ -13116,7 +13115,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="364" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>1003</v>
       </c>
@@ -13139,7 +13138,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="365" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>1006</v>
       </c>
@@ -13162,7 +13161,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="366" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>1009</v>
       </c>
@@ -13185,7 +13184,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="367" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>1012</v>
       </c>
@@ -13208,7 +13207,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="368" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>1014</v>
       </c>
@@ -13231,7 +13230,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="369" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>1017</v>
       </c>
@@ -13254,7 +13253,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="370" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>1020</v>
       </c>
@@ -13277,7 +13276,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="371" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>1023</v>
       </c>
@@ -13300,7 +13299,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="372" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>1026</v>
       </c>
@@ -13323,7 +13322,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="373" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>1028</v>
       </c>
@@ -13346,7 +13345,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="374" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>1030</v>
       </c>
@@ -13369,7 +13368,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="375" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>1034</v>
       </c>
@@ -13392,7 +13391,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="376" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>1037</v>
       </c>
@@ -13415,7 +13414,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="377" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>1040</v>
       </c>
@@ -13438,7 +13437,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="378" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>1042</v>
       </c>
@@ -13461,7 +13460,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="379" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>1044</v>
       </c>
@@ -13484,7 +13483,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="380" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>1047</v>
       </c>
@@ -13507,7 +13506,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="381" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>1050</v>
       </c>
@@ -13530,7 +13529,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="382" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>1053</v>
       </c>
@@ -13553,7 +13552,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="383" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>1056</v>
       </c>
@@ -13576,7 +13575,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="384" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>1058</v>
       </c>
@@ -13599,7 +13598,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="385" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>1061</v>
       </c>
@@ -13622,7 +13621,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="386" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>1063</v>
       </c>
@@ -13645,7 +13644,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="387" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>1066</v>
       </c>
@@ -13668,7 +13667,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="388" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>1069</v>
       </c>
@@ -13691,7 +13690,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="389" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>1072</v>
       </c>
@@ -13714,7 +13713,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="390" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>1074</v>
       </c>
@@ -13737,7 +13736,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="391" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>1076</v>
       </c>
@@ -13760,7 +13759,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="392" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>1077</v>
       </c>
@@ -13783,7 +13782,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="393" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>1079</v>
       </c>
@@ -13806,7 +13805,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="394" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>1082</v>
       </c>
@@ -13829,7 +13828,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="395" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>1084</v>
       </c>
@@ -13852,7 +13851,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="396" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>1087</v>
       </c>
@@ -13875,7 +13874,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="397" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>1090</v>
       </c>
@@ -13898,7 +13897,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="398" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>1093</v>
       </c>
@@ -13921,7 +13920,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="399" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>1096</v>
       </c>
@@ -13944,7 +13943,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="400" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>1098</v>
       </c>
@@ -13967,7 +13966,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="401" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>1101</v>
       </c>
@@ -13990,7 +13989,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="402" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>1105</v>
       </c>
@@ -14013,7 +14012,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="403" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>1109</v>
       </c>
@@ -14036,7 +14035,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="404" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>1111</v>
       </c>
@@ -14059,7 +14058,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="405" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>1113</v>
       </c>
@@ -14082,7 +14081,7 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="406" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>1116</v>
       </c>
@@ -14105,7 +14104,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="407" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>1120</v>
       </c>
@@ -14128,7 +14127,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="408" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>1123</v>
       </c>
@@ -14151,7 +14150,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="409" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>1126</v>
       </c>
@@ -14174,7 +14173,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="410" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>1127</v>
       </c>
@@ -14197,7 +14196,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="411" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>1130</v>
       </c>
@@ -14220,7 +14219,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="412" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>1132</v>
       </c>
@@ -14243,7 +14242,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="413" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>1135</v>
       </c>
@@ -14266,7 +14265,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="414" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>1138</v>
       </c>
@@ -14289,7 +14288,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="415" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>1141</v>
       </c>
@@ -14312,7 +14311,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="416" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>1144</v>
       </c>
@@ -14335,7 +14334,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="417" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>1146</v>
       </c>
@@ -14358,7 +14357,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="418" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>1148</v>
       </c>
@@ -14381,7 +14380,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="419" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>1151</v>
       </c>
@@ -14404,7 +14403,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="420" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>1153</v>
       </c>
@@ -14427,7 +14426,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="421" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>1156</v>
       </c>
@@ -14450,7 +14449,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="422" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>1158</v>
       </c>
@@ -14473,7 +14472,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="423" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>1160</v>
       </c>
@@ -14496,7 +14495,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="424" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>1163</v>
       </c>
@@ -14519,7 +14518,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="425" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>1165</v>
       </c>
@@ -14542,7 +14541,7 @@
         <v>780</v>
       </c>
     </row>
-    <row r="426" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>1167</v>
       </c>
@@ -14565,7 +14564,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="427" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>1170</v>
       </c>
@@ -14588,7 +14587,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="428" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>1173</v>
       </c>
@@ -14611,7 +14610,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="429" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>1176</v>
       </c>
@@ -14634,7 +14633,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="430" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>1179</v>
       </c>
@@ -14657,7 +14656,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="431" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>1181</v>
       </c>
@@ -14680,7 +14679,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="432" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>1184</v>
       </c>
@@ -14703,7 +14702,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="433" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>1186</v>
       </c>
@@ -14726,7 +14725,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="434" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>1189</v>
       </c>
@@ -14749,7 +14748,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="435" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>1191</v>
       </c>
@@ -14772,7 +14771,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="436" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>1194</v>
       </c>
@@ -14795,7 +14794,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="437" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>1196</v>
       </c>
@@ -14818,7 +14817,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="438" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>1199</v>
       </c>
@@ -14841,7 +14840,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="439" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>1202</v>
       </c>
@@ -14864,7 +14863,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="440" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>1205</v>
       </c>
@@ -14887,7 +14886,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="441" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>1208</v>
       </c>
@@ -14910,7 +14909,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="442" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>1211</v>
       </c>
@@ -14933,7 +14932,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="443" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>1214</v>
       </c>
@@ -14956,7 +14955,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="444" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>1217</v>
       </c>
@@ -14979,7 +14978,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="445" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>1219</v>
       </c>
@@ -15002,7 +15001,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="446" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>1222</v>
       </c>
@@ -15025,7 +15024,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="447" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>1225</v>
       </c>
@@ -15048,7 +15047,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="448" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>1227</v>
       </c>
@@ -15071,7 +15070,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="449" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>1230</v>
       </c>
@@ -15094,7 +15093,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="450" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>1233</v>
       </c>
@@ -15117,7 +15116,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="451" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>1236</v>
       </c>
@@ -15140,7 +15139,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="452" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>1239</v>
       </c>
@@ -15163,7 +15162,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="453" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>1242</v>
       </c>
@@ -15186,7 +15185,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="454" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>1245</v>
       </c>
@@ -15209,7 +15208,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="455" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>1247</v>
       </c>
@@ -15232,7 +15231,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="456" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>1249</v>
       </c>
@@ -15255,7 +15254,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="457" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>1252</v>
       </c>
@@ -15278,7 +15277,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="458" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>1254</v>
       </c>
@@ -15301,7 +15300,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="459" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>1256</v>
       </c>
@@ -15324,7 +15323,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="460" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>1258</v>
       </c>
@@ -15347,7 +15346,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="461" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>1260</v>
       </c>
@@ -15370,7 +15369,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="462" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>1262</v>
       </c>
@@ -15393,7 +15392,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="463" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>1265</v>
       </c>
@@ -15416,7 +15415,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="464" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>1268</v>
       </c>
@@ -15439,7 +15438,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="465" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>1270</v>
       </c>
@@ -15462,7 +15461,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="466" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>1272</v>
       </c>
@@ -15485,7 +15484,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="467" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>1275</v>
       </c>
@@ -15508,7 +15507,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="468" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>1276</v>
       </c>
@@ -15531,7 +15530,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="469" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>1278</v>
       </c>
@@ -15554,7 +15553,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="470" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>1280</v>
       </c>
@@ -15577,7 +15576,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="471" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>1281</v>
       </c>
@@ -15600,7 +15599,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="472" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>1282</v>
       </c>
@@ -15623,7 +15622,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="473" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>1284</v>
       </c>
@@ -15646,7 +15645,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="474" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>1287</v>
       </c>
@@ -15669,7 +15668,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="475" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>1290</v>
       </c>
@@ -15692,7 +15691,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="476" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>1292</v>
       </c>
@@ -15715,7 +15714,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="477" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>1295</v>
       </c>
@@ -15738,7 +15737,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="478" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>1297</v>
       </c>
@@ -15761,7 +15760,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="479" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>1299</v>
       </c>
@@ -15784,7 +15783,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="480" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>1302</v>
       </c>
@@ -15807,7 +15806,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="481" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>1305</v>
       </c>
@@ -15830,7 +15829,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="482" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>1307</v>
       </c>
@@ -15853,7 +15852,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="483" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>1309</v>
       </c>
@@ -15876,7 +15875,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="484" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>1312</v>
       </c>
@@ -15899,7 +15898,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="485" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>1315</v>
       </c>
@@ -15922,7 +15921,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="486" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>1317</v>
       </c>
@@ -15945,7 +15944,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="487" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>1320</v>
       </c>
@@ -15968,7 +15967,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="488" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>1323</v>
       </c>
@@ -15991,7 +15990,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="489" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>1326</v>
       </c>
@@ -16014,7 +16013,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="490" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>1328</v>
       </c>
@@ -16037,7 +16036,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="491" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>1330</v>
       </c>
@@ -16060,7 +16059,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="492" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>1333</v>
       </c>
@@ -16083,7 +16082,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="493" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>1336</v>
       </c>
@@ -16106,7 +16105,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="494" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>1338</v>
       </c>
@@ -16129,7 +16128,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="495" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>1340</v>
       </c>
@@ -16152,7 +16151,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="496" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>1342</v>
       </c>
@@ -16175,7 +16174,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="497" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>1344</v>
       </c>
@@ -16198,7 +16197,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="498" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>1347</v>
       </c>
@@ -16221,7 +16220,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="499" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>1349</v>
       </c>
@@ -16244,7 +16243,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="500" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>1351</v>
       </c>
@@ -16267,7 +16266,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="501" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>1353</v>
       </c>
@@ -16290,7 +16289,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="502" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>1356</v>
       </c>
@@ -16313,7 +16312,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="503" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>1358</v>
       </c>
@@ -16336,7 +16335,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="504" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>1361</v>
       </c>
@@ -16359,7 +16358,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="505" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>1363</v>
       </c>
@@ -16382,7 +16381,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="506" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>1366</v>
       </c>
@@ -16405,7 +16404,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="507" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>1368</v>
       </c>
@@ -16428,7 +16427,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="508" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>1370</v>
       </c>
@@ -16451,7 +16450,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="509" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>1373</v>
       </c>
@@ -16474,7 +16473,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="510" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>1375</v>
       </c>
@@ -16497,7 +16496,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="511" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>1377</v>
       </c>
@@ -16520,7 +16519,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="512" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>1380</v>
       </c>
@@ -16543,7 +16542,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="513" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>1383</v>
       </c>
@@ -16566,7 +16565,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="514" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>1385</v>
       </c>
@@ -16589,7 +16588,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>1388</v>
       </c>
@@ -16612,7 +16611,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>1390</v>
       </c>
@@ -16635,7 +16634,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>1393</v>
       </c>
@@ -16658,7 +16657,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>1396</v>
       </c>
@@ -16681,7 +16680,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>1398</v>
       </c>
@@ -16704,7 +16703,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>1401</v>
       </c>
@@ -16727,7 +16726,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>1404</v>
       </c>
@@ -16750,7 +16749,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>1407</v>
       </c>
@@ -16773,7 +16772,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>1410</v>
       </c>
@@ -16796,7 +16795,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>1413</v>
       </c>
@@ -16819,7 +16818,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>1416</v>
       </c>
@@ -16842,7 +16841,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>1419</v>
       </c>
@@ -16865,7 +16864,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>1422</v>
       </c>
@@ -16888,7 +16887,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>1426</v>
       </c>
@@ -16911,7 +16910,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>1427</v>
       </c>
@@ -16934,7 +16933,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="530" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>1429</v>
       </c>
@@ -16957,7 +16956,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="531" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>1431</v>
       </c>
@@ -16980,7 +16979,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="532" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>1433</v>
       </c>
@@ -17003,7 +17002,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="533" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>1436</v>
       </c>
@@ -17026,7 +17025,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="534" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>1438</v>
       </c>
@@ -17049,7 +17048,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="535" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>1440</v>
       </c>
@@ -17072,7 +17071,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>1442</v>
       </c>
@@ -17095,7 +17094,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>1444</v>
       </c>
@@ -17118,7 +17117,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>1446</v>
       </c>
@@ -17141,7 +17140,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>1448</v>
       </c>
@@ -17165,7 +17164,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:G539" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:G539"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>